--- a/REGULAR/CPDO/ORSAL, MARK LESTER BAYAS.xlsx
+++ b/REGULAR/CPDO/ORSAL, MARK LESTER BAYAS.xlsx
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
   <si>
     <t>PERIOD</t>
   </si>
@@ -249,6 +249,22 @@
   </si>
   <si>
     <t>UT(0-2-50)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2024</t>
+    </r>
+  </si>
+  <si>
+    <t>10/2,3/2023</t>
   </si>
 </sst>
 </file>
@@ -948,7 +964,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -991,7 +1007,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1055,7 +1071,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1115,7 +1131,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1181,7 +1197,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1244,7 +1260,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1358,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1401,7 +1417,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1466,7 +1482,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1509,7 +1525,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1584,7 +1600,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1770,7 +1786,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1852,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1894,7 +1910,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1960,7 +1976,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2016,7 +2032,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2107,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2134,7 +2150,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2200,7 +2216,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2256,7 +2272,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2368,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2699,12 +2715,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A31" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A49" activePane="bottomLeft"/>
       <selection activeCell="A12" sqref="A12:A16"/>
-      <selection pane="bottomLeft" activeCell="F43" sqref="F43"/>
+      <selection pane="bottomLeft" activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2880,7 +2896,7 @@
       <c r="D9" s="12"/>
       <c r="E9" s="14">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>21.990000000000002</v>
+        <v>26.990000000000002</v>
       </c>
       <c r="F9" s="12"/>
       <c r="G9" s="14" t="str">
@@ -2890,7 +2906,7 @@
       <c r="H9" s="12"/>
       <c r="I9" s="14">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>40.75</v>
+        <v>43.75</v>
       </c>
       <c r="J9" s="12"/>
       <c r="K9" s="21"/>
@@ -3822,13 +3838,15 @@
       <c r="B54" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C54" s="14"/>
+      <c r="C54" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="41"/>
       <c r="E54" s="10"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="41"/>
       <c r="I54" s="10"/>
@@ -3864,13 +3882,15 @@
         <v>45108</v>
       </c>
       <c r="B56" s="21"/>
-      <c r="C56" s="14"/>
+      <c r="C56" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="41"/>
       <c r="E56" s="10"/>
       <c r="F56" s="21"/>
-      <c r="G56" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="41"/>
       <c r="I56" s="10"/>
@@ -3882,13 +3902,15 @@
         <v>45139</v>
       </c>
       <c r="B57" s="21"/>
-      <c r="C57" s="14"/>
+      <c r="C57" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="41"/>
       <c r="E57" s="10"/>
       <c r="F57" s="21"/>
-      <c r="G57" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="41"/>
       <c r="I57" s="10"/>
@@ -3900,13 +3922,15 @@
         <v>45170</v>
       </c>
       <c r="B58" s="21"/>
-      <c r="C58" s="14"/>
+      <c r="C58" s="14">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="41"/>
       <c r="E58" s="10"/>
       <c r="F58" s="21"/>
-      <c r="G58" s="14" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="14">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="41"/>
       <c r="I58" s="10"/>
@@ -3914,8 +3938,12 @@
       <c r="K58" s="21"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A59" s="42"/>
-      <c r="B59" s="21"/>
+      <c r="A59" s="42">
+        <v>45200</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>52</v>
+      </c>
       <c r="C59" s="14"/>
       <c r="D59" s="41"/>
       <c r="E59" s="10"/>
@@ -3924,13 +3952,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H59" s="41"/>
+      <c r="H59" s="41">
+        <v>2</v>
+      </c>
       <c r="I59" s="10"/>
       <c r="J59" s="12"/>
-      <c r="K59" s="21"/>
+      <c r="K59" s="21" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A60" s="42"/>
+      <c r="A60" s="42">
+        <v>45231</v>
+      </c>
       <c r="B60" s="21"/>
       <c r="C60" s="14"/>
       <c r="D60" s="41"/>
@@ -3946,7 +3980,9 @@
       <c r="K60" s="21"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A61" s="42"/>
+      <c r="A61" s="42">
+        <v>45261</v>
+      </c>
       <c r="B61" s="21"/>
       <c r="C61" s="14"/>
       <c r="D61" s="41"/>
@@ -3962,7 +3998,9 @@
       <c r="K61" s="21"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A62" s="42"/>
+      <c r="A62" s="24" t="s">
+        <v>69</v>
+      </c>
       <c r="B62" s="21"/>
       <c r="C62" s="14"/>
       <c r="D62" s="41"/>
@@ -3978,7 +4016,9 @@
       <c r="K62" s="21"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="42"/>
+      <c r="A63" s="42">
+        <v>45292</v>
+      </c>
       <c r="B63" s="21"/>
       <c r="C63" s="14"/>
       <c r="D63" s="41"/>
@@ -3994,7 +4034,9 @@
       <c r="K63" s="21"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="42"/>
+      <c r="A64" s="42">
+        <v>45323</v>
+      </c>
       <c r="B64" s="21"/>
       <c r="C64" s="14"/>
       <c r="D64" s="41"/>
@@ -4010,7 +4052,9 @@
       <c r="K64" s="21"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="42"/>
+      <c r="A65" s="42">
+        <v>45352</v>
+      </c>
       <c r="B65" s="21"/>
       <c r="C65" s="14"/>
       <c r="D65" s="41"/>
@@ -4026,7 +4070,9 @@
       <c r="K65" s="21"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="42"/>
+      <c r="A66" s="42">
+        <v>45383</v>
+      </c>
       <c r="B66" s="21"/>
       <c r="C66" s="14"/>
       <c r="D66" s="41"/>
@@ -4042,7 +4088,9 @@
       <c r="K66" s="21"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="42"/>
+      <c r="A67" s="42">
+        <v>45413</v>
+      </c>
       <c r="B67" s="21"/>
       <c r="C67" s="14"/>
       <c r="D67" s="41"/>
@@ -4058,7 +4106,9 @@
       <c r="K67" s="21"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="42"/>
+      <c r="A68" s="42">
+        <v>45444</v>
+      </c>
       <c r="B68" s="21"/>
       <c r="C68" s="14"/>
       <c r="D68" s="41"/>
@@ -5146,20 +5196,36 @@
       <c r="K135" s="21"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="43"/>
-      <c r="B136" s="16"/>
-      <c r="C136" s="44"/>
-      <c r="D136" s="45"/>
+      <c r="A136" s="42"/>
+      <c r="B136" s="21"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="41"/>
       <c r="E136" s="10"/>
-      <c r="F136" s="16"/>
-      <c r="G136" s="44" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="45"/>
+      <c r="F136" s="21"/>
+      <c r="G136" s="14" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="41"/>
       <c r="I136" s="10"/>
-      <c r="J136" s="13"/>
-      <c r="K136" s="16"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="21"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="43"/>
+      <c r="B137" s="16"/>
+      <c r="C137" s="44"/>
+      <c r="D137" s="45"/>
+      <c r="E137" s="10"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="44" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="45"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="13"/>
+      <c r="K137" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="11">
